--- a/biology/Botanique/Lierre/Lierre.xlsx
+++ b/biology/Botanique/Lierre/Lierre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
@@ -515,16 +527,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lierres de la famille des Araliacées
-Lierres du genre Hedera :
+          <t>Lierres de la famille des Araliacées</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Lierres du genre Hedera :
 le Lierre des Canaries (Hedera canariensis Willd. ou Hedera algeriensis Hibberd) est une espèce de Lierres ;
 le Lierre grimpant (Hedera helix) est l'espèce de Lierres la plus courante ;
-le Lierre d'Irlande (Hedera helix subsp. hibernica ou Hedera hibernica (Kirchn.) Bean) est une sous-espèce de lierre grimpant.
-Autres taxons
-Ce nom est donné à différentes plantes plus ou moins semblables au Lierre grimpant mais appartenant à d'autres familles :
-le Lierre d'Allemagne, Delairea odorata, liane de la famille des Astéracées ;
-le Lierre terrestre, plante herbacée de la famille des Lamiacées ;
-les Liserons (Convolvulacées) sont souvent appelées lierre.</t>
+le Lierre d'Irlande (Hedera helix subsp. hibernica ou Hedera hibernica (Kirchn.) Bean) est une sous-espèce de lierre grimpant.</t>
         </is>
       </c>
     </row>
@@ -549,10 +561,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Botanique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Autres taxons</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ce nom est donné à différentes plantes plus ou moins semblables au Lierre grimpant mais appartenant à d'autres familles :
+le Lierre d'Allemagne, Delairea odorata, liane de la famille des Astéracées ;
+le Lierre terrestre, plante herbacée de la famille des Lamiacées ;
+les Liserons (Convolvulacées) sont souvent appelées lierre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lierre</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lierre</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Toponyme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lierre est un nom de lieu porté par :
 Lierre (en néerlandais Lier), ville belge de la province d'Anvers.
